--- a/examples/Canada OGD/wd/counters_summary.xlsx
+++ b/examples/Canada OGD/wd/counters_summary.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Canada OGD/wd/counters_summary.xlsx
+++ b/examples/Canada OGD/wd/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -441,7 +466,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -459,22 +484,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>11</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -483,6 +508,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -493,10 +533,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -511,22 +551,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -535,6 +575,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,10 +600,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -578,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -587,6 +642,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -597,10 +667,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -630,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -639,6 +709,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -649,10 +734,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -667,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>7</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -691,6 +776,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -734,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -743,6 +843,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -753,10 +868,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -786,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -795,6 +910,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -805,10 +935,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -823,22 +953,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>12</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -847,6 +977,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,10 +1002,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -875,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -899,6 +1044,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -909,10 +1069,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -927,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>16</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -951,6 +1111,21 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -961,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -979,22 +1154,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>11</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1003,6 +1178,21 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1013,10 +1203,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1046,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1055,6 +1245,21 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,10 +1270,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1083,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1107,6 +1312,21 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1117,10 +1337,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1132,25 +1352,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1159,6 +1379,21 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1169,10 +1404,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1202,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1211,6 +1446,21 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1221,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1254,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1263,6 +1513,21 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1273,10 +1538,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1306,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1315,6 +1580,21 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,10 +1605,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1340,17 +1620,17 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -1358,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1367,6 +1647,21 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1377,10 +1672,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1410,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1419,6 +1714,21 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1429,10 +1739,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1462,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1471,6 +1781,21 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1481,10 +1806,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1499,22 +1824,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>15</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1523,6 +1848,21 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/examples/Canada OGD/wd/counters_summary.xlsx
+++ b/examples/Canada OGD/wd/counters_summary.xlsx
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.000277</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002</v>
+        <v>0.003051</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001</v>
+        <v>0.001942</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001</v>
+        <v>0.001942</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002</v>
+        <v>0.003329</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>16</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002</v>
+        <v>0.004438</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002</v>
+        <v>0.003051</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003</v>
+        <v>0.005825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.000555</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001</v>
+        <v>0.002774</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002</v>
+        <v>0.004161</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>15</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002</v>
+        <v>0.004161</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
